--- a/bist100Gecmis/EBEBK.xlsx
+++ b/bist100Gecmis/EBEBK.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="isyatirim" sheetId="1" r:id="R13f008b106fa4132"/>
+    <sheet name="isyatirim" sheetId="1" r:id="Rddee32c6192f4efb"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Tarih</t>
   </si>
@@ -191,6 +191,96 @@
   </si>
   <si>
     <t>10-11-2023</t>
+  </si>
+  <si>
+    <t>13-11-2023</t>
+  </si>
+  <si>
+    <t>14-11-2023</t>
+  </si>
+  <si>
+    <t>15-11-2023</t>
+  </si>
+  <si>
+    <t>16-11-2023</t>
+  </si>
+  <si>
+    <t>17-11-2023</t>
+  </si>
+  <si>
+    <t>20-11-2023</t>
+  </si>
+  <si>
+    <t>21-11-2023</t>
+  </si>
+  <si>
+    <t>22-11-2023</t>
+  </si>
+  <si>
+    <t>23-11-2023</t>
+  </si>
+  <si>
+    <t>24-11-2023</t>
+  </si>
+  <si>
+    <t>27-11-2023</t>
+  </si>
+  <si>
+    <t>28-11-2023</t>
+  </si>
+  <si>
+    <t>29-11-2023</t>
+  </si>
+  <si>
+    <t>30-11-2023</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
+  </si>
+  <si>
+    <t>04-12-2023</t>
+  </si>
+  <si>
+    <t>05-12-2023</t>
+  </si>
+  <si>
+    <t>06-12-2023</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t>08-12-2023</t>
+  </si>
+  <si>
+    <t>11-12-2023</t>
+  </si>
+  <si>
+    <t>12-12-2023</t>
+  </si>
+  <si>
+    <t>13-12-2023</t>
+  </si>
+  <si>
+    <t>14-12-2023</t>
+  </si>
+  <si>
+    <t>15-12-2023</t>
+  </si>
+  <si>
+    <t>18-12-2023</t>
+  </si>
+  <si>
+    <t>19-12-2023</t>
+  </si>
+  <si>
+    <t>20-12-2023</t>
+  </si>
+  <si>
+    <t>21-12-2023</t>
+  </si>
+  <si>
+    <t>22-12-2023</t>
   </si>
 </sst>
 </file>
@@ -237,7 +327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2170,6 +2260,1236 @@
         <v>88</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>63.85</v>
+      </c>
+      <c r="C48" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>66.4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>64.69</v>
+      </c>
+      <c r="F48" s="1">
+        <v>192991570</v>
+      </c>
+      <c r="G48" s="1">
+        <v>160</v>
+      </c>
+      <c r="H48" s="1">
+        <v>28.5934</v>
+      </c>
+      <c r="I48" s="1">
+        <v>7568</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10216</v>
+      </c>
+      <c r="K48" s="1">
+        <v>357</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2547</v>
+      </c>
+      <c r="M48" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66.6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>62.35</v>
+      </c>
+      <c r="D49" s="1">
+        <v>67.35</v>
+      </c>
+      <c r="E49" s="1">
+        <v>65.35</v>
+      </c>
+      <c r="F49" s="1">
+        <v>160602703</v>
+      </c>
+      <c r="G49" s="1">
+        <v>160</v>
+      </c>
+      <c r="H49" s="1">
+        <v>28.6341</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7671</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10656</v>
+      </c>
+      <c r="K49" s="1">
+        <v>372</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2657</v>
+      </c>
+      <c r="M49" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>67.25</v>
+      </c>
+      <c r="C50" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>67.16</v>
+      </c>
+      <c r="F50" s="1">
+        <v>133406071</v>
+      </c>
+      <c r="G50" s="1">
+        <v>160</v>
+      </c>
+      <c r="H50" s="1">
+        <v>28.6679</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7666</v>
+      </c>
+      <c r="J50" s="1">
+        <v>10760</v>
+      </c>
+      <c r="K50" s="1">
+        <v>375</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2682</v>
+      </c>
+      <c r="M50" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>65.45</v>
+      </c>
+      <c r="D51" s="1">
+        <v>69.9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>68.45</v>
+      </c>
+      <c r="F51" s="1">
+        <v>125135093</v>
+      </c>
+      <c r="G51" s="1">
+        <v>160</v>
+      </c>
+      <c r="H51" s="1">
+        <v>28.7045</v>
+      </c>
+      <c r="I51" s="1">
+        <v>7781</v>
+      </c>
+      <c r="J51" s="1">
+        <v>11088</v>
+      </c>
+      <c r="K51" s="1">
+        <v>386</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2764</v>
+      </c>
+      <c r="M51" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>68.45</v>
+      </c>
+      <c r="C52" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="D52" s="1">
+        <v>71</v>
+      </c>
+      <c r="E52" s="1">
+        <v>68.02</v>
+      </c>
+      <c r="F52" s="1">
+        <v>106862508</v>
+      </c>
+      <c r="G52" s="1">
+        <v>160</v>
+      </c>
+      <c r="H52" s="1">
+        <v>28.7109</v>
+      </c>
+      <c r="I52" s="1">
+        <v>7853</v>
+      </c>
+      <c r="J52" s="1">
+        <v>10952</v>
+      </c>
+      <c r="K52" s="1">
+        <v>381</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2730</v>
+      </c>
+      <c r="M52" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1">
+        <v>67</v>
+      </c>
+      <c r="D53" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>68.05</v>
+      </c>
+      <c r="F53" s="1">
+        <v>92416090</v>
+      </c>
+      <c r="G53" s="1">
+        <v>160</v>
+      </c>
+      <c r="H53" s="1">
+        <v>28.7568</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7946</v>
+      </c>
+      <c r="J53" s="1">
+        <v>10720</v>
+      </c>
+      <c r="K53" s="1">
+        <v>373</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2672</v>
+      </c>
+      <c r="M53" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1">
+        <v>66.4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>69.1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>67.54</v>
+      </c>
+      <c r="F54" s="1">
+        <v>101524367</v>
+      </c>
+      <c r="G54" s="1">
+        <v>160</v>
+      </c>
+      <c r="H54" s="1">
+        <v>28.7992</v>
+      </c>
+      <c r="I54" s="1">
+        <v>8047</v>
+      </c>
+      <c r="J54" s="1">
+        <v>10880</v>
+      </c>
+      <c r="K54" s="1">
+        <v>378</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2712</v>
+      </c>
+      <c r="M54" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1">
+        <v>67.9</v>
+      </c>
+      <c r="C55" s="1">
+        <v>67.35</v>
+      </c>
+      <c r="D55" s="1">
+        <v>68.9</v>
+      </c>
+      <c r="E55" s="1">
+        <v>68.01</v>
+      </c>
+      <c r="F55" s="1">
+        <v>61613271</v>
+      </c>
+      <c r="G55" s="1">
+        <v>160</v>
+      </c>
+      <c r="H55" s="1">
+        <v>28.8136</v>
+      </c>
+      <c r="I55" s="1">
+        <v>7987</v>
+      </c>
+      <c r="J55" s="1">
+        <v>10864</v>
+      </c>
+      <c r="K55" s="1">
+        <v>377</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2708</v>
+      </c>
+      <c r="M55" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1">
+        <v>70</v>
+      </c>
+      <c r="C56" s="1">
+        <v>67.75</v>
+      </c>
+      <c r="D56" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>69.86</v>
+      </c>
+      <c r="F56" s="1">
+        <v>171473631</v>
+      </c>
+      <c r="G56" s="1">
+        <v>160</v>
+      </c>
+      <c r="H56" s="1">
+        <v>28.8304</v>
+      </c>
+      <c r="I56" s="1">
+        <v>7899</v>
+      </c>
+      <c r="J56" s="1">
+        <v>11200</v>
+      </c>
+      <c r="K56" s="1">
+        <v>388</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2792</v>
+      </c>
+      <c r="M56" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="C57" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="D57" s="1">
+        <v>71.95</v>
+      </c>
+      <c r="E57" s="1">
+        <v>70.94</v>
+      </c>
+      <c r="F57" s="1">
+        <v>130470425</v>
+      </c>
+      <c r="G57" s="1">
+        <v>160</v>
+      </c>
+      <c r="H57" s="1">
+        <v>28.8607</v>
+      </c>
+      <c r="I57" s="1">
+        <v>7960</v>
+      </c>
+      <c r="J57" s="1">
+        <v>11312</v>
+      </c>
+      <c r="K57" s="1">
+        <v>392</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2799</v>
+      </c>
+      <c r="M57" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1">
+        <v>70.85</v>
+      </c>
+      <c r="C58" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>71.65</v>
+      </c>
+      <c r="E58" s="1">
+        <v>70.43</v>
+      </c>
+      <c r="F58" s="1">
+        <v>158941993</v>
+      </c>
+      <c r="G58" s="1">
+        <v>160</v>
+      </c>
+      <c r="H58" s="1">
+        <v>28.9104</v>
+      </c>
+      <c r="I58" s="1">
+        <v>8107</v>
+      </c>
+      <c r="J58" s="1">
+        <v>11336</v>
+      </c>
+      <c r="K58" s="1">
+        <v>392</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2805</v>
+      </c>
+      <c r="M58" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1">
+        <v>70.85</v>
+      </c>
+      <c r="C59" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>70.4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>69847378</v>
+      </c>
+      <c r="G59" s="1">
+        <v>160</v>
+      </c>
+      <c r="H59" s="1">
+        <v>28.9289</v>
+      </c>
+      <c r="I59" s="1">
+        <v>8094</v>
+      </c>
+      <c r="J59" s="1">
+        <v>11336</v>
+      </c>
+      <c r="K59" s="1">
+        <v>392</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2805</v>
+      </c>
+      <c r="M59" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="1">
+        <v>70.1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>69.1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="E60" s="1">
+        <v>70.05</v>
+      </c>
+      <c r="F60" s="1">
+        <v>52784958</v>
+      </c>
+      <c r="G60" s="1">
+        <v>160</v>
+      </c>
+      <c r="H60" s="1">
+        <v>28.9116</v>
+      </c>
+      <c r="I60" s="1">
+        <v>8009</v>
+      </c>
+      <c r="J60" s="1">
+        <v>11216</v>
+      </c>
+      <c r="K60" s="1">
+        <v>388</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2775</v>
+      </c>
+      <c r="M60" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>68.99</v>
+      </c>
+      <c r="F61" s="1">
+        <v>79839321</v>
+      </c>
+      <c r="G61" s="1">
+        <v>160</v>
+      </c>
+      <c r="H61" s="1">
+        <v>28.8728</v>
+      </c>
+      <c r="I61" s="1">
+        <v>7949</v>
+      </c>
+      <c r="J61" s="1">
+        <v>11232</v>
+      </c>
+      <c r="K61" s="1">
+        <v>389</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2779</v>
+      </c>
+      <c r="M61" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="1">
+        <v>70.35</v>
+      </c>
+      <c r="C62" s="1">
+        <v>69.55</v>
+      </c>
+      <c r="D62" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>70.77</v>
+      </c>
+      <c r="F62" s="1">
+        <v>74254032</v>
+      </c>
+      <c r="G62" s="1">
+        <v>160</v>
+      </c>
+      <c r="H62" s="1">
+        <v>28.9073</v>
+      </c>
+      <c r="I62" s="1">
+        <v>8026</v>
+      </c>
+      <c r="J62" s="1">
+        <v>11256</v>
+      </c>
+      <c r="K62" s="1">
+        <v>389</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2785</v>
+      </c>
+      <c r="M62" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="1">
+        <v>70.05</v>
+      </c>
+      <c r="C63" s="1">
+        <v>68.4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>70.75</v>
+      </c>
+      <c r="E63" s="1">
+        <v>69.45</v>
+      </c>
+      <c r="F63" s="1">
+        <v>69668319</v>
+      </c>
+      <c r="G63" s="1">
+        <v>160</v>
+      </c>
+      <c r="H63" s="1">
+        <v>28.9035</v>
+      </c>
+      <c r="I63" s="1">
+        <v>8087</v>
+      </c>
+      <c r="J63" s="1">
+        <v>11208</v>
+      </c>
+      <c r="K63" s="1">
+        <v>388</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2773</v>
+      </c>
+      <c r="M63" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>70.31</v>
+      </c>
+      <c r="F64" s="1">
+        <v>55362651</v>
+      </c>
+      <c r="G64" s="1">
+        <v>160</v>
+      </c>
+      <c r="H64" s="1">
+        <v>28.9225</v>
+      </c>
+      <c r="I64" s="1">
+        <v>8057</v>
+      </c>
+      <c r="J64" s="1">
+        <v>11280</v>
+      </c>
+      <c r="K64" s="1">
+        <v>390</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2791</v>
+      </c>
+      <c r="M64" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="1">
+        <v>68.05</v>
+      </c>
+      <c r="C65" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>70.75</v>
+      </c>
+      <c r="E65" s="1">
+        <v>69.52</v>
+      </c>
+      <c r="F65" s="1">
+        <v>62510752</v>
+      </c>
+      <c r="G65" s="1">
+        <v>160</v>
+      </c>
+      <c r="H65" s="1">
+        <v>28.9313</v>
+      </c>
+      <c r="I65" s="1">
+        <v>7855</v>
+      </c>
+      <c r="J65" s="1">
+        <v>10888</v>
+      </c>
+      <c r="K65" s="1">
+        <v>376</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2694</v>
+      </c>
+      <c r="M65" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="1">
+        <v>69.75</v>
+      </c>
+      <c r="C66" s="1">
+        <v>66</v>
+      </c>
+      <c r="D66" s="1">
+        <v>69.75</v>
+      </c>
+      <c r="E66" s="1">
+        <v>67.79</v>
+      </c>
+      <c r="F66" s="1">
+        <v>63110923</v>
+      </c>
+      <c r="G66" s="1">
+        <v>160</v>
+      </c>
+      <c r="H66" s="1">
+        <v>28.926</v>
+      </c>
+      <c r="I66" s="1">
+        <v>7979</v>
+      </c>
+      <c r="J66" s="1">
+        <v>11160</v>
+      </c>
+      <c r="K66" s="1">
+        <v>386</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2761</v>
+      </c>
+      <c r="M66" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1">
+        <v>68.85</v>
+      </c>
+      <c r="D67" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>70.96</v>
+      </c>
+      <c r="F67" s="1">
+        <v>73763656</v>
+      </c>
+      <c r="G67" s="1">
+        <v>160</v>
+      </c>
+      <c r="H67" s="1">
+        <v>28.9495</v>
+      </c>
+      <c r="I67" s="1">
+        <v>7914</v>
+      </c>
+      <c r="J67" s="1">
+        <v>11360</v>
+      </c>
+      <c r="K67" s="1">
+        <v>392</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2810</v>
+      </c>
+      <c r="M67" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="1">
+        <v>69.75</v>
+      </c>
+      <c r="C68" s="1">
+        <v>66.15</v>
+      </c>
+      <c r="D68" s="1">
+        <v>71.1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="F68" s="1">
+        <v>113052217</v>
+      </c>
+      <c r="G68" s="1">
+        <v>160</v>
+      </c>
+      <c r="H68" s="1">
+        <v>28.9917</v>
+      </c>
+      <c r="I68" s="1">
+        <v>7728</v>
+      </c>
+      <c r="J68" s="1">
+        <v>11160</v>
+      </c>
+      <c r="K68" s="1">
+        <v>385</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2761</v>
+      </c>
+      <c r="M68" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="1">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1">
+        <v>68.05</v>
+      </c>
+      <c r="D69" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>69.2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>45760584</v>
+      </c>
+      <c r="G69" s="1">
+        <v>160</v>
+      </c>
+      <c r="H69" s="1">
+        <v>29.0295</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7749</v>
+      </c>
+      <c r="J69" s="1">
+        <v>11200</v>
+      </c>
+      <c r="K69" s="1">
+        <v>386</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2771</v>
+      </c>
+      <c r="M69" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="1">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1">
+        <v>63</v>
+      </c>
+      <c r="D70" s="1">
+        <v>70</v>
+      </c>
+      <c r="E70" s="1">
+        <v>65.49</v>
+      </c>
+      <c r="F70" s="1">
+        <v>80748480</v>
+      </c>
+      <c r="G70" s="1">
+        <v>160</v>
+      </c>
+      <c r="H70" s="1">
+        <v>29.0579</v>
+      </c>
+      <c r="I70" s="1">
+        <v>7529</v>
+      </c>
+      <c r="J70" s="1">
+        <v>10080</v>
+      </c>
+      <c r="K70" s="1">
+        <v>347</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2494</v>
+      </c>
+      <c r="M70" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="1">
+        <v>63</v>
+      </c>
+      <c r="C71" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="D71" s="1">
+        <v>65</v>
+      </c>
+      <c r="E71" s="1">
+        <v>62.51</v>
+      </c>
+      <c r="F71" s="1">
+        <v>86060442</v>
+      </c>
+      <c r="G71" s="1">
+        <v>160</v>
+      </c>
+      <c r="H71" s="1">
+        <v>29.0328</v>
+      </c>
+      <c r="I71" s="1">
+        <v>7813</v>
+      </c>
+      <c r="J71" s="1">
+        <v>10080</v>
+      </c>
+      <c r="K71" s="1">
+        <v>347</v>
+      </c>
+      <c r="L71" s="1">
+        <v>2494</v>
+      </c>
+      <c r="M71" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1">
+        <v>64.1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="D72" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="E72" s="1">
+        <v>64.39</v>
+      </c>
+      <c r="F72" s="1">
+        <v>73162543</v>
+      </c>
+      <c r="G72" s="1">
+        <v>160</v>
+      </c>
+      <c r="H72" s="1">
+        <v>29.0369</v>
+      </c>
+      <c r="I72" s="1">
+        <v>7994</v>
+      </c>
+      <c r="J72" s="1">
+        <v>10256</v>
+      </c>
+      <c r="K72" s="1">
+        <v>353</v>
+      </c>
+      <c r="L72" s="1">
+        <v>2537</v>
+      </c>
+      <c r="M72" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="D73" s="1">
+        <v>65.75</v>
+      </c>
+      <c r="E73" s="1">
+        <v>64.95</v>
+      </c>
+      <c r="F73" s="1">
+        <v>58385390</v>
+      </c>
+      <c r="G73" s="1">
+        <v>160</v>
+      </c>
+      <c r="H73" s="1">
+        <v>29.0576</v>
+      </c>
+      <c r="I73" s="1">
+        <v>7790</v>
+      </c>
+      <c r="J73" s="1">
+        <v>10480</v>
+      </c>
+      <c r="K73" s="1">
+        <v>361</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2593</v>
+      </c>
+      <c r="M73" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="1">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1">
+        <v>62.95</v>
+      </c>
+      <c r="D74" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>66.98</v>
+      </c>
+      <c r="F74" s="1">
+        <v>64345315</v>
+      </c>
+      <c r="G74" s="1">
+        <v>160</v>
+      </c>
+      <c r="H74" s="1">
+        <v>29.0822</v>
+      </c>
+      <c r="I74" s="1">
+        <v>7726</v>
+      </c>
+      <c r="J74" s="1">
+        <v>10880</v>
+      </c>
+      <c r="K74" s="1">
+        <v>374</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2692</v>
+      </c>
+      <c r="M74" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="1">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1">
+        <v>66.75</v>
+      </c>
+      <c r="D75" s="1">
+        <v>71.25</v>
+      </c>
+      <c r="E75" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="F75" s="1">
+        <v>69341393</v>
+      </c>
+      <c r="G75" s="1">
+        <v>160</v>
+      </c>
+      <c r="H75" s="1">
+        <v>29.1201</v>
+      </c>
+      <c r="I75" s="1">
+        <v>7663</v>
+      </c>
+      <c r="J75" s="1">
+        <v>11200</v>
+      </c>
+      <c r="K75" s="1">
+        <v>385</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2771</v>
+      </c>
+      <c r="M75" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="1">
+        <v>69.35</v>
+      </c>
+      <c r="C76" s="1">
+        <v>67.45</v>
+      </c>
+      <c r="D76" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="E76" s="1">
+        <v>69.33</v>
+      </c>
+      <c r="F76" s="1">
+        <v>52906943</v>
+      </c>
+      <c r="G76" s="1">
+        <v>160</v>
+      </c>
+      <c r="H76" s="1">
+        <v>29.1422</v>
+      </c>
+      <c r="I76" s="1">
+        <v>7765</v>
+      </c>
+      <c r="J76" s="1">
+        <v>11096</v>
+      </c>
+      <c r="K76" s="1">
+        <v>381</v>
+      </c>
+      <c r="L76" s="1">
+        <v>2745</v>
+      </c>
+      <c r="M76" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>68.1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>73.95</v>
+      </c>
+      <c r="E77" s="1">
+        <v>71.74</v>
+      </c>
+      <c r="F77" s="1">
+        <v>195270455</v>
+      </c>
+      <c r="G77" s="1">
+        <v>160</v>
+      </c>
+      <c r="H77" s="1">
+        <v>29.1869</v>
+      </c>
+      <c r="I77" s="1">
+        <v>7558</v>
+      </c>
+      <c r="J77" s="1">
+        <v>11600</v>
+      </c>
+      <c r="K77" s="1">
+        <v>397</v>
+      </c>
+      <c r="L77" s="1">
+        <v>2870</v>
+      </c>
+      <c r="M77" s="1">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
